--- a/po forecast comparison/B0CKS6BMH7_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CKS6BMH7_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,701 +453,1416 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44970</v>
+        <v>44976</v>
       </c>
       <c r="B2" t="n">
         <v>592</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45221</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45215</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45222</v>
+        <v>45228</v>
       </c>
       <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45229</v>
+        <v>45235</v>
       </c>
       <c r="B5" t="n">
         <v>26</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45236</v>
+        <v>45242</v>
       </c>
       <c r="B6" t="n">
         <v>31</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45243</v>
+        <v>45249</v>
       </c>
       <c r="B7" t="n">
         <v>25</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45250</v>
+        <v>45256</v>
       </c>
       <c r="B8" t="n">
         <v>30</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="B9" t="n">
         <v>47</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45264</v>
+        <v>45270</v>
       </c>
       <c r="B10" t="n">
         <v>37</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45271</v>
+        <v>45277</v>
       </c>
       <c r="B11" t="n">
         <v>59</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45285</v>
+        <v>45291</v>
       </c>
       <c r="B12" t="n">
         <v>51</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="B13" t="n">
         <v>45</v>
       </c>
-      <c r="C13" t="n">
-        <v>288</v>
+      <c r="C13" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45299</v>
+        <v>45305</v>
       </c>
       <c r="B14" t="n">
         <v>54</v>
       </c>
-      <c r="C14" t="n">
-        <v>36</v>
+      <c r="C14" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45306</v>
+        <v>45312</v>
       </c>
       <c r="B15" t="n">
         <v>49</v>
       </c>
-      <c r="C15" t="n">
-        <v>252</v>
+      <c r="C15" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45313</v>
+        <v>45319</v>
       </c>
       <c r="B16" t="n">
         <v>28</v>
       </c>
-      <c r="C16" t="n">
-        <v>126</v>
+      <c r="C16" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45320</v>
+        <v>45326</v>
       </c>
       <c r="B17" t="n">
         <v>35</v>
       </c>
-      <c r="C17" t="n">
-        <v>180</v>
+      <c r="C17" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="B18" t="n">
         <v>50</v>
       </c>
-      <c r="C18" t="n">
-        <v>18</v>
+      <c r="C18" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45334</v>
+        <v>45340</v>
       </c>
       <c r="B19" t="n">
         <v>45</v>
       </c>
-      <c r="C19" t="n">
-        <v>144</v>
+      <c r="C19" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="B20" t="n">
         <v>56</v>
       </c>
-      <c r="C20" t="n">
-        <v>252</v>
+      <c r="C20" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="B21" t="n">
         <v>61</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B22" t="n">
         <v>57</v>
       </c>
-      <c r="C22" t="n">
-        <v>156</v>
+      <c r="C22" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B23" t="n">
         <v>71</v>
       </c>
-      <c r="C23" t="n">
-        <v>36</v>
+      <c r="C23" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B24" t="n">
         <v>86</v>
       </c>
-      <c r="C24" t="n">
-        <v>66</v>
+      <c r="C24" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B25" t="n">
         <v>86</v>
       </c>
-      <c r="C25" t="n">
-        <v>72</v>
+      <c r="C25" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B26" t="n">
         <v>42</v>
       </c>
-      <c r="C26" t="n">
-        <v>108</v>
+      <c r="C26" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45390</v>
+        <v>45396</v>
       </c>
       <c r="B27" t="n">
         <v>42</v>
       </c>
-      <c r="C27" t="n">
-        <v>216</v>
+      <c r="C27" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45397</v>
+        <v>45403</v>
       </c>
       <c r="B28" t="n">
         <v>54</v>
       </c>
-      <c r="C28" t="n">
-        <v>180</v>
+      <c r="C28" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="B29" t="n">
         <v>43</v>
       </c>
-      <c r="C29" t="n">
-        <v>132</v>
+      <c r="C29" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="B30" t="n">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2" t="n">
         <v>45411</v>
       </c>
-      <c r="B30" t="n">
-        <v>65</v>
-      </c>
-      <c r="C30" t="n">
-        <v>96</v>
+      <c r="D30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45418</v>
+        <v>45417</v>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
-      </c>
-      <c r="C31" t="n">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45425</v>
+        <v>45424</v>
       </c>
       <c r="B32" t="n">
-        <v>38</v>
-      </c>
-      <c r="C32" t="n">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45432</v>
+        <v>45431</v>
       </c>
       <c r="B33" t="n">
-        <v>49</v>
-      </c>
-      <c r="C33" t="n">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45439</v>
+        <v>45438</v>
       </c>
       <c r="B34" t="n">
-        <v>43</v>
-      </c>
-      <c r="C34" t="n">
-        <v>84</v>
+        <v>49</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45446</v>
+        <v>45445</v>
       </c>
       <c r="B35" t="n">
-        <v>51</v>
-      </c>
-      <c r="C35" t="n">
+        <v>43</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45453</v>
+        <v>45452</v>
       </c>
       <c r="B36" t="n">
-        <v>31</v>
-      </c>
-      <c r="C36" t="n">
-        <v>912</v>
+        <v>51</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45460</v>
+        <v>45459</v>
       </c>
       <c r="B37" t="n">
-        <v>47</v>
-      </c>
-      <c r="C37" t="n">
-        <v>132</v>
+        <v>31</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45467</v>
+        <v>45466</v>
       </c>
       <c r="B38" t="n">
-        <v>41</v>
-      </c>
-      <c r="C38" t="n">
+        <v>47</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45474</v>
+        <v>45473</v>
       </c>
       <c r="B39" t="n">
-        <v>40</v>
-      </c>
-      <c r="C39" t="n">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45481</v>
+        <v>45480</v>
       </c>
       <c r="B40" t="n">
-        <v>63</v>
-      </c>
-      <c r="C40" t="n">
-        <v>120</v>
+        <v>40</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45488</v>
+        <v>45487</v>
       </c>
       <c r="B41" t="n">
-        <v>62</v>
-      </c>
-      <c r="C41" t="n">
+        <v>63</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45495</v>
+        <v>45494</v>
       </c>
       <c r="B42" t="n">
-        <v>27</v>
-      </c>
-      <c r="C42" t="n">
-        <v>24</v>
+        <v>62</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45502</v>
+        <v>45501</v>
       </c>
       <c r="B43" t="n">
-        <v>28</v>
-      </c>
-      <c r="C43" t="n">
-        <v>84</v>
+        <v>27</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45509</v>
+        <v>45508</v>
       </c>
       <c r="B44" t="n">
-        <v>38</v>
-      </c>
-      <c r="C44" t="n">
+        <v>28</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45516</v>
+        <v>45515</v>
       </c>
       <c r="B45" t="n">
-        <v>36</v>
-      </c>
-      <c r="C45" t="n">
+        <v>38</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45523</v>
+        <v>45522</v>
       </c>
       <c r="B46" t="n">
-        <v>207</v>
-      </c>
-      <c r="C46" t="n">
+        <v>36</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45530</v>
+        <v>45529</v>
       </c>
       <c r="B47" t="n">
-        <v>32</v>
-      </c>
-      <c r="C47" t="n">
+        <v>207</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45537</v>
+        <v>45536</v>
       </c>
       <c r="B48" t="n">
-        <v>38</v>
-      </c>
-      <c r="C48" t="n">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45544</v>
+        <v>45543</v>
       </c>
       <c r="B49" t="n">
-        <v>24</v>
-      </c>
-      <c r="C49" t="n">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45551</v>
+        <v>45550</v>
       </c>
       <c r="B50" t="n">
-        <v>20</v>
-      </c>
-      <c r="C50" t="n">
-        <v>120</v>
+        <v>24</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45558</v>
+        <v>45557</v>
       </c>
       <c r="B51" t="n">
-        <v>31</v>
-      </c>
-      <c r="C51" t="n">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45565</v>
+        <v>45564</v>
       </c>
       <c r="B52" t="n">
-        <v>45</v>
-      </c>
-      <c r="C52" t="n">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45572</v>
+        <v>45571</v>
       </c>
       <c r="B53" t="n">
-        <v>48</v>
-      </c>
-      <c r="C53" t="n">
-        <v>192</v>
+        <v>45</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45579</v>
+        <v>45578</v>
       </c>
       <c r="B54" t="n">
-        <v>36</v>
-      </c>
-      <c r="C54" t="n">
         <v>48</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45586</v>
+        <v>45585</v>
       </c>
       <c r="B55" t="n">
-        <v>29</v>
-      </c>
-      <c r="C55" t="n">
-        <v>156</v>
+        <v>36</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45593</v>
+        <v>45592</v>
       </c>
       <c r="B56" t="n">
-        <v>34</v>
-      </c>
-      <c r="C56" t="n">
-        <v>96</v>
+        <v>29</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="B57" t="n">
-        <v>57</v>
-      </c>
-      <c r="C57" t="n">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45607</v>
+        <v>45606</v>
       </c>
       <c r="B58" t="n">
-        <v>62</v>
-      </c>
-      <c r="C58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45614</v>
+        <v>45613</v>
       </c>
       <c r="B59" t="n">
-        <v>50</v>
-      </c>
-      <c r="C59" t="n">
+        <v>62</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="B60" t="n">
-        <v>42</v>
-      </c>
-      <c r="C60" t="n">
+        <v>50</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="B61" t="n">
-        <v>92</v>
-      </c>
-      <c r="C61" t="n">
+        <v>42</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="B62" t="n">
-        <v>57</v>
-      </c>
-      <c r="C62" t="n">
+        <v>92</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="B63" t="n">
-        <v>50</v>
-      </c>
-      <c r="C63" t="n">
+        <v>57</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B64" t="n">
+        <v>50</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B65" t="n">
+        <v>40</v>
+      </c>
+      <c r="C65" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B64" t="n">
-        <v>40</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="n">
+        <v>288</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B3" t="n">
+        <v>36</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-87.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B4" t="n">
+        <v>252</v>
+      </c>
+      <c r="C4" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B5" t="n">
+        <v>126</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B6" t="n">
+        <v>180</v>
+      </c>
+      <c r="C6" t="n">
+        <v>42.85714285714286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B8" t="n">
+        <v>144</v>
+      </c>
+      <c r="C8" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B9" t="n">
+        <v>252</v>
+      </c>
+      <c r="C9" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B10" t="n">
+        <v>156</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-38.09523809523809</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B11" t="n">
+        <v>36</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-76.92307692307692</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B12" t="n">
+        <v>66</v>
+      </c>
+      <c r="C12" t="n">
+        <v>83.33333333333333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B13" t="n">
+        <v>72</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.090909090909083</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B14" t="n">
+        <v>108</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B15" t="n">
+        <v>216</v>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B16" t="n">
+        <v>180</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-16.66666666666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B17" t="n">
+        <v>132</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-26.66666666666667</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B18" t="n">
+        <v>96</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-27.27272727272727</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B19" t="n">
+        <v>48</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B21" t="n">
+        <v>84</v>
+      </c>
+      <c r="C21" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B22" t="n">
+        <v>912</v>
+      </c>
+      <c r="C22" t="n">
+        <v>985.7142857142858</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B23" t="n">
+        <v>132</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-85.52631578947368</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B24" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-54.54545454545454</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B25" t="n">
+        <v>120</v>
+      </c>
+      <c r="C25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B27" t="n">
+        <v>84</v>
+      </c>
+      <c r="C27" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B28" t="n">
+        <v>36</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-57.14285714285714</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B29" t="n">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>66.66666666666667</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B30" t="n">
+        <v>120</v>
+      </c>
+      <c r="C30" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B31" t="n">
+        <v>36</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B32" t="n">
+        <v>192</v>
+      </c>
+      <c r="C32" t="n">
+        <v>433.3333333333333</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B33" t="n">
+        <v>48</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B34" t="n">
+        <v>156</v>
+      </c>
+      <c r="C34" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B35" t="n">
+        <v>96</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-38.46153846153846</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B36" t="n">
+        <v>24</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4602</v>
+      </c>
+      <c r="B2" t="n">
+        <v>131.4857142857143</v>
+      </c>
+      <c r="C2" t="n">
+        <v>912</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>95.51596638655464</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0CKS6BMH7_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CKS6BMH7_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,908 +453,700 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44976</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>592</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45221</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45228</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45235</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45242</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45249</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45256</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>30</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45263</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>47</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45270</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45277</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>59</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45291</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>51</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45298</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>45</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="C13" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45305</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>54</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="C14" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45312</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>49</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="C15" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45319</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="C16" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45326</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>35</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="C17" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45333</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>50</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45340</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>45</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="C19" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45347</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>56</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="C20" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45354</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>57</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="C22" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>71</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="C23" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>86</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="C24" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>86</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="C25" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45389</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>42</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="C26" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45396</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>42</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="C27" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45403</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>54</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="C28" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45410</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>43</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="C29" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C30" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45417</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>25</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="C31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45424</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>40</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="C32" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45431</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>38</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D33" t="n">
+        <v>49</v>
+      </c>
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45438</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>49</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="C34" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45445</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>43</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D35" t="n">
+        <v>51</v>
+      </c>
+      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45452</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>51</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C36" t="n">
+        <v>912</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45459</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>31</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C37" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45466</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>47</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D38" t="n">
+        <v>41</v>
+      </c>
+      <c r="C38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45473</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>41</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="C39" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45480</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="C40" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45487</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>63</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D41" t="n">
+        <v>62</v>
+      </c>
+      <c r="C41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45494</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>62</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C42" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45501</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>27</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C43" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45508</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>28</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D44" t="n">
+        <v>38</v>
+      </c>
+      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45515</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>38</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D45" t="n">
+        <v>36</v>
+      </c>
+      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45522</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>36</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D46" t="n">
+        <v>207</v>
+      </c>
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45529</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>207</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D47" t="n">
+        <v>32</v>
+      </c>
+      <c r="C47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45536</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>32</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="C48" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45543</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>38</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C49" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45550</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>24</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C50" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45557</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>20</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D51" t="n">
+        <v>31</v>
+      </c>
+      <c r="C51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45564</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>31</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="C52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45571</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>45</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C53" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45578</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B54" t="n">
+        <v>36</v>
+      </c>
+      <c r="C54" t="n">
         <v>48</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45585</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>36</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C55" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45592</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>29</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="C56" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45599</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>34</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C57" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45606</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D58" t="n">
+        <v>62</v>
+      </c>
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45613</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>62</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D59" t="n">
+        <v>50</v>
+      </c>
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45620</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>50</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D60" t="n">
+        <v>42</v>
+      </c>
+      <c r="C60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45627</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>42</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D61" t="n">
+        <v>92</v>
+      </c>
+      <c r="C61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45634</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>92</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D62" t="n">
+        <v>57</v>
+      </c>
+      <c r="C62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45641</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>57</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D63" t="n">
+        <v>50</v>
+      </c>
+      <c r="C63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45648</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>50</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B65" t="n">
         <v>40</v>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1369,7 +1161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1396,10 +1188,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1407,304 +1199,304 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="C3" t="n">
-        <v>-87.5</v>
+        <v>23.52941176470589</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>600</v>
+        <v>-95.23809523809523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="C5" t="n">
-        <v>-50</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="C6" t="n">
-        <v>42.85714285714286</v>
+        <v>-17.24137931034483</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="C7" t="n">
-        <v>-90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>700</v>
+        <v>-87.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>252</v>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C10" t="n">
-        <v>-38.09523809523809</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="C11" t="n">
-        <v>-76.92307692307692</v>
+        <v>42.85714285714286</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45369</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>83.33333333333333</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45376</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="C13" t="n">
-        <v>9.090909090909083</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45383</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45390</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>-38.09523809523809</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45397</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>-16.66666666666666</v>
+        <v>-76.92307692307692</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45404</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C17" t="n">
-        <v>-26.66666666666667</v>
+        <v>83.33333333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45411</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C18" t="n">
-        <v>-27.27272727272727</v>
+        <v>9.090909090909083</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45418</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C19" t="n">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45425</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="C20" t="n">
-        <v>-75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45439</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="C21" t="n">
-        <v>600</v>
+        <v>-16.66666666666666</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45453</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>912</v>
+        <v>132</v>
       </c>
       <c r="C22" t="n">
-        <v>985.7142857142858</v>
+        <v>-26.66666666666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45460</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C23" t="n">
-        <v>-85.52631578947368</v>
+        <v>-27.27272727272727</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45474</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C24" t="n">
-        <v>-54.54545454545454</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45481</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45495</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C26" t="n">
-        <v>-80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45502</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>84</v>
+        <v>912</v>
       </c>
       <c r="C27" t="n">
-        <v>250</v>
+        <v>985.7142857142858</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45537</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="C28" t="n">
-        <v>-57.14285714285714</v>
+        <v>-85.52631578947368</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45544</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>60</v>
       </c>
       <c r="C29" t="n">
-        <v>66.66666666666667</v>
+        <v>-54.54545454545454</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45551</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>120</v>
@@ -1715,67 +1507,122 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45565</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C31" t="n">
-        <v>-70</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45572</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="C32" t="n">
-        <v>433.3333333333333</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45579</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>-75</v>
+        <v>-57.14285714285714</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45586</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="C34" t="n">
-        <v>225</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45593</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C35" t="n">
-        <v>-38.46153846153846</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45600</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B36" t="n">
+        <v>36</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>192</v>
+      </c>
+      <c r="C37" t="n">
+        <v>433.3333333333333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>48</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>156</v>
+      </c>
+      <c r="C39" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>96</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-38.46153846153846</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B41" t="n">
         <v>24</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C41" t="n">
         <v>-75</v>
       </c>
     </row>
@@ -1822,16 +1669,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4602</v>
+        <v>5154</v>
       </c>
       <c r="B2" t="n">
-        <v>131.4857142857143</v>
+        <v>128.85</v>
       </c>
       <c r="C2" t="n">
         <v>912</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +1709,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95.51596638655464</v>
+        <v>109.0153846153846</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0CKS6BMH7_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CKS6BMH7_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,6 +955,14 @@
       </c>
       <c r="B64" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -31858,7 +31866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C324"/>
+  <dimension ref="A1:C325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34883,7 +34891,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275">
@@ -34894,7 +34902,7 @@
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276">
@@ -34971,7 +34979,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="283">
@@ -35004,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="286">
@@ -35136,7 +35144,7 @@
         <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298">
@@ -35158,7 +35166,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="300">
@@ -35191,7 +35199,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303">
@@ -35202,7 +35210,7 @@
         <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304">
@@ -35433,6 +35441,17 @@
         <v>40</v>
       </c>
       <c r="C324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B325" t="n">
+        <v>13</v>
+      </c>
+      <c r="C325" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CKS6BMH7_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CKS6BMH7_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,6 +963,14 @@
       </c>
       <c r="B65" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -31866,7 +31874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C325"/>
+  <dimension ref="A1:C326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33714,7 +33722,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168">
@@ -33736,7 +33744,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170">
@@ -34000,7 +34008,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194">
@@ -34011,7 +34019,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195">
@@ -34033,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197">
@@ -34044,7 +34052,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198">
@@ -34055,7 +34063,7 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199">
@@ -34066,7 +34074,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200">
@@ -34077,7 +34085,7 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201">
@@ -34099,7 +34107,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203">
@@ -34110,7 +34118,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204">
@@ -34121,7 +34129,7 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205">
@@ -34308,7 +34316,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222">
@@ -34341,7 +34349,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225">
@@ -34352,7 +34360,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226">
@@ -34385,7 +34393,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229">
@@ -34429,7 +34437,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233">
@@ -34440,7 +34448,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
     </row>
     <row r="234">
@@ -34451,7 +34459,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="235">
@@ -34462,7 +34470,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
     </row>
     <row r="236">
@@ -34473,7 +34481,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>276</v>
+        <v>126</v>
       </c>
     </row>
     <row r="237">
@@ -34484,7 +34492,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>276</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238">
@@ -34495,7 +34503,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="239">
@@ -34539,7 +34547,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243">
@@ -34561,7 +34569,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="245">
@@ -34594,7 +34602,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248">
@@ -34616,7 +34624,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250">
@@ -34627,7 +34635,7 @@
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251">
@@ -34649,7 +34657,7 @@
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253">
@@ -34671,7 +34679,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="255">
@@ -34682,7 +34690,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256">
@@ -34693,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="257">
@@ -34704,7 +34712,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258">
@@ -34869,7 +34877,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273">
@@ -34880,7 +34888,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274">
@@ -34990,7 +34998,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="284">
@@ -35001,7 +35009,7 @@
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285">
@@ -35045,7 +35053,7 @@
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289">
@@ -35056,7 +35064,7 @@
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290">
@@ -35111,7 +35119,7 @@
         <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="295">
@@ -35122,7 +35130,7 @@
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296">
@@ -35133,7 +35141,7 @@
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="297">
@@ -35155,7 +35163,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="299">
@@ -35166,7 +35174,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="300">
@@ -35177,7 +35185,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301">
@@ -35254,7 +35262,7 @@
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308">
@@ -35287,7 +35295,7 @@
         <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="311">
@@ -35452,6 +35460,17 @@
         <v>13</v>
       </c>
       <c r="C325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B326" t="n">
+        <v>8</v>
+      </c>
+      <c r="C326" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CKS6BMH7_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CKS6BMH7_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,6 +971,14 @@
       </c>
       <c r="B66" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31874,7 +31882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C326"/>
+  <dimension ref="A1:C327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35053,7 +35061,7 @@
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289">
@@ -35064,7 +35072,7 @@
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290">
@@ -35075,7 +35083,7 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="291">
@@ -35086,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292">
@@ -35273,7 +35281,7 @@
         <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="309">
@@ -35284,7 +35292,7 @@
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310">
@@ -35471,6 +35479,17 @@
         <v>8</v>
       </c>
       <c r="C326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+      <c r="C327" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CKS6BMH7_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CKS6BMH7_sales_po_comparison.xlsx
@@ -978,7 +978,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -35487,7 +35487,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
